--- a/output/report.xlsx
+++ b/output/report.xlsx
@@ -651,11 +651,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1071,7 +1072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,52 +1081,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>stat_name</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>stat</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>df</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>p_value</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>effect_size</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>n_total</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>n_group_a</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>n_group_b</t>
         </is>
@@ -1256,6 +1257,70 @@
         <v>32</v>
       </c>
       <c r="J5" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post_test</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Welch t-test</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.829911344027417</v>
+      </c>
+      <c r="E6" t="n">
+        <v>61.96490718000946</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.409774877555138</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Welch t-test</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.612004735270865</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60.87057856591578</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1121343540866437</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32</v>
+      </c>
+      <c r="J7" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1279,57 +1344,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>block</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>std</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>median</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>q1</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>q3</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>minimum</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>maximum</t>
         </is>
@@ -3229,7 +3294,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Improvement</t>
+          <t>Gain</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3270,7 +3335,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Improvement</t>
+          <t>Gain</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3651,32 +3716,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>block</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>stat</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>p_value</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>is_normal</t>
         </is>
@@ -4889,7 +4954,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Improvement</t>
+          <t>Gain</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4915,7 +4980,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Improvement</t>
+          <t>Gain</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5163,77 +5228,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>block</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>test_name</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>group_a</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>group_b</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>n_a</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>n_b</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>statistic</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>z_value</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>p_value</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>effect_size</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>p_holm</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>rejects_holm</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>p_bh</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>rejects_bh</t>
         </is>
@@ -6609,7 +6674,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Improvement</t>
+          <t>Gain</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
